--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Payment systems</t>
-  </si>
-  <si>
-    <t>When you start the MindMap: in footer of the page you have Settings - Manual</t>
   </si>
   <si>
     <t>Name; phone number; date of birth;  billing information; email address and home and business postal addresses; website and social media information</t>
@@ -716,6 +713,15 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/12EIlzoFjC_nitBEb9x7RkfV8puUYkeiI?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1PjXSMlf9Hea7i-17optl-25LLRp5_b-C?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1HJYjFNkvd5r1sBt2kGWCxxuL3_4QX_Q8?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1YSErAh33YATO3XV-d1q-XwQDQadJraqR?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,17 +1392,19 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1442,18 +1450,20 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
       </c>
@@ -1472,13 +1482,13 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
@@ -1490,7 +1500,7 @@
     </row>
     <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
@@ -1502,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
@@ -1520,10 +1530,10 @@
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1560,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -1588,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>68</v>
@@ -1606,7 +1616,7 @@
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
@@ -1618,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1636,7 +1646,7 @@
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
@@ -1648,13 +1658,13 @@
         <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>87</v>
@@ -1678,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
@@ -1708,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
@@ -1738,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
@@ -1768,13 +1778,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>103</v>
@@ -1786,7 +1796,7 @@
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
@@ -1798,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
@@ -1828,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
@@ -1858,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>108</v>
@@ -1913,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>113</v>
@@ -1943,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>114</v>
@@ -1961,7 +1971,7 @@
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
@@ -1973,13 +1983,13 @@
         <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>117</v>
@@ -2003,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
@@ -2021,7 +2031,7 @@
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
@@ -2033,13 +2043,13 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
@@ -2051,7 +2061,7 @@
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>124</v>

--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="174">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>Name; phone number; billing information; email address and home and business postal addresses; technical and routing information about user`s computer to facilitate use of the Website and its services; IP address; browser version; the time of the request; the URL of request; files that user uploads, downloads or accesses via the products and services, information about report: amount, date, category, description, attachments</t>
-  </si>
-  <si>
-    <t>https://helpdesk.bitrix24.com/open/1360947/</t>
   </si>
   <si>
     <t>Name; phone number; billing information; email address and home and business postal addresses; technical and routing information about user`s computer to facilitate use of the Website and its services; IP address; browser version; the time of the request; the URL of request; files that user uploads, downloads or accesses via the products and services, information about tasks: the number of all tasks, average time and other</t>
@@ -722,6 +719,12 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1YSErAh33YATO3XV-d1q-XwQDQadJraqR?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1z0LZf4cYT9YRJId5tHORRgZGum9gg4-E?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1JBYmBA4vo2tPwtelCmuZaUfP3xN1FiD5?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
@@ -1430,7 +1433,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1450,19 +1453,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -1488,19 +1491,21 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
@@ -1512,13 +1517,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
@@ -1530,10 +1535,10 @@
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1616,7 +1621,7 @@
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
@@ -1628,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1646,7 +1651,7 @@
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
@@ -1658,13 +1663,13 @@
         <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>87</v>
@@ -1688,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
@@ -1718,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
@@ -1748,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
@@ -1778,13 +1783,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>103</v>
@@ -1796,7 +1801,7 @@
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
@@ -1808,13 +1813,13 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
@@ -1838,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
@@ -1868,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>108</v>
@@ -1923,13 +1928,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>113</v>
@@ -1953,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>114</v>
@@ -1971,7 +1976,7 @@
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
@@ -1983,13 +1988,13 @@
         <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>117</v>
@@ -2013,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
@@ -2031,7 +2036,7 @@
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
@@ -2043,13 +2048,13 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
@@ -2061,7 +2066,7 @@
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>124</v>

--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>https://partnerportal.bitrix24.com/docs/pub/c4f2afe52ba55597a952b78706121adc/default/?&amp;</t>
-  </si>
-  <si>
-    <t>https://integration.bitrix.info/app/gdpr/GDPR_for_CRM_and_Sites.pdf</t>
   </si>
   <si>
     <t>Messaging service</t>
@@ -725,6 +722,36 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1JBYmBA4vo2tPwtelCmuZaUfP3xN1FiD5?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1R7sCfImRCYx-QrCaupWU-gxKxQrJqjlX?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1sIuUPOdFh_YGHc2Ku92ggBvQIVnZdYTH?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1x8KbD7xLEh-mgTgPDDbHZ977UmCX1Rf8?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=integrations24.zapier2#install</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1wlnuIH_R_JxNgIFQ7usZnTMpCKOG5p1K?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1nB3BMBGddU5zKD0nJ6kFBQSfQvTxI9ZZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1rgd2V6qr6tjwjwUA4vPuQkSbxqDXqBNP?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1lm-Ha-JHSDa38KOzRT-mWP-z9_UcJFe0?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1_upx2pJj8N9rK3DMVfBGZnsGMTW8P1h8?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1iVINtp9stvvrnXsTBsuLunSpLBcZEWIE?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1231,7 @@
     <col min="7" max="7" width="18.296875" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.796875" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.8984375" style="6" customWidth="1"/>
     <col min="12" max="16384" width="10.69921875" style="6"/>
   </cols>
@@ -1395,13 +1422,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
@@ -1433,7 +1460,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1453,19 +1480,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -1485,19 +1512,19 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
@@ -1505,7 +1532,7 @@
     </row>
     <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
@@ -1517,28 +1544,30 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1558,7 +1587,9 @@
       <c r="I13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>74</v>
       </c>
@@ -1575,18 +1606,20 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>75</v>
       </c>
@@ -1603,25 +1636,27 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
@@ -1633,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1644,14 +1679,16 @@
       <c r="I16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
@@ -1663,18 +1700,20 @@
         <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>86</v>
       </c>
@@ -1693,18 +1732,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>97</v>
       </c>
@@ -1723,18 +1764,20 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>98</v>
       </c>
@@ -1753,25 +1796,27 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>46</v>
@@ -1783,13 +1828,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>103</v>
@@ -1801,7 +1846,7 @@
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
@@ -1813,13 +1858,13 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
@@ -1843,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
@@ -1861,7 +1906,7 @@
     </row>
     <row r="24" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>49</v>
@@ -1873,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>108</v>
@@ -1916,7 +1961,7 @@
     </row>
     <row r="26" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>51</v>
@@ -1928,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>113</v>
@@ -1946,7 +1991,7 @@
     </row>
     <row r="27" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>52</v>
@@ -1958,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>114</v>
@@ -1976,7 +2021,7 @@
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
@@ -1988,13 +2033,13 @@
         <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>117</v>
@@ -2006,7 +2051,7 @@
     </row>
     <row r="29" spans="2:11" ht="195" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>54</v>
@@ -2018,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
@@ -2036,7 +2081,7 @@
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
@@ -2048,13 +2093,13 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
@@ -2066,7 +2111,7 @@
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>124</v>
@@ -2126,7 +2171,7 @@
     </row>
     <row r="33" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>57</v>
@@ -2156,7 +2201,7 @@
     </row>
     <row r="34" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>58</v>

--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="193">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -532,9 +532,6 @@
     <t>https://www.bitrix24.com/apps/?app=integrations24.burnupchart#install</t>
   </si>
   <si>
-    <t>In additional</t>
-  </si>
-  <si>
     <t>Data transmission</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
   </si>
   <si>
     <t>https://www.bitrix24.com/apps/?app=integrations24.braintree#install</t>
-  </si>
-  <si>
-    <t>When you set preferences - click the "Manual"</t>
   </si>
   <si>
     <t>Email address, full name, company name, phone number and business phone, business address, work industry, billing information, information about employees; the URL that user just came from, which URL user next goes</t>
@@ -752,6 +746,42 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1iVINtp9stvvrnXsTBsuLunSpLBcZEWIE?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ihDGDZNQlyy9vcWK-kM0u9wi8GRabwhZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/18HXDGucoT7_c_9hslV5uNWu4UL6oEPKF?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1eKsTnkfSL0gU7_vfIYEvcqk3k_KvYyUv?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ZVEc3xGHXK_E2tGc1bsWPwBWrGKMT9pe?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=integrations24.commission#install</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/17ir6k-vJNhVqL_KsJylEEkAGKWS0SN0P?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1LPoUtoogWcgaAoWMkU9DsQL6WdDLk9HL?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1QDEkNsbejGhzyMkL1naOLUfer6p-u6vT?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Acy9ZSkUK27lCiZv2paWAfbEIqtNV4p_?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1fS_Ln5-MZrwS_G5IaOY_8Xe0JYQkuDq5?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1rPwnAYO7X-o64gCVNAf1Rrl1zdokTDtp?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1GpSpAwSUiWa343Ecb57hm_SiL1KWDKw_?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,13 +1452,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
@@ -1460,7 +1490,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1492,7 +1522,7 @@
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -1518,13 +1548,13 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
@@ -1532,7 +1562,7 @@
     </row>
     <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
@@ -1544,19 +1574,19 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
@@ -1564,10 +1594,10 @@
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1588,7 +1618,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>74</v>
@@ -1612,13 +1642,13 @@
         <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>75</v>
@@ -1648,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -1656,7 +1686,7 @@
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
@@ -1668,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1680,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>74</v>
@@ -1688,7 +1718,7 @@
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
@@ -1700,25 +1730,25 @@
         <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,19 +1762,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>97</v>
@@ -1764,25 +1794,25 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1796,19 +1826,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>99</v>
@@ -1828,25 +1858,27 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
@@ -1858,18 +1890,20 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K22" s="2" t="s">
         <v>104</v>
       </c>
@@ -1888,18 +1922,20 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1918,18 +1954,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>102</v>
       </c>
@@ -1950,11 +1988,18 @@
       <c r="F25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>110</v>
       </c>
@@ -1973,18 +2018,20 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>111</v>
       </c>
@@ -2003,25 +2050,27 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
@@ -2033,18 +2082,20 @@
         <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>118</v>
       </c>
@@ -2063,25 +2114,27 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
@@ -2093,13 +2146,13 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
@@ -2111,7 +2164,7 @@
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>124</v>

--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="195">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t xml:space="preserve">Email addresses, postal addresses, phone numbers, employee names, usernames, information about the type of service required, marketing preferences, job titles, credit card payment information, transactional information (including Services purchased), inquiries, contact or other information, traffic data (calls, team chat, video conferencing, SMS), IP address, browser type, operating system, date/time stamp, city of residence of individuals </t>
-  </si>
-  <si>
-    <t>https://partnerportal.bitrix24.com/docs/pub/c4f2afe52ba55597a952b78706121adc/default/?&amp;</t>
   </si>
   <si>
     <t>Messaging service</t>
@@ -782,6 +779,15 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1GpSpAwSUiWa343Ecb57hm_SiL1KWDKw_?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1a56zFIS4qsAnkkx5Mr8Evwv1VKany7jl?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ayTO5XkBc_cG4timijuogvl4DsztuhqA?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1sygO5wA8sjtbW11jgBFM3XCRBRPG2UlT?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,13 +1458,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
@@ -1490,7 +1496,7 @@
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1510,19 +1516,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -1542,19 +1548,19 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
@@ -1574,19 +1580,19 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
@@ -1594,10 +1600,10 @@
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1618,7 +1624,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>74</v>
@@ -1636,19 +1642,19 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>75</v>
@@ -1666,19 +1672,19 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
@@ -1698,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1710,7 +1716,7 @@
         <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>74</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
@@ -1730,19 +1736,19 @@
         <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>86</v>
@@ -1762,19 +1768,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>97</v>
@@ -1794,19 +1800,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>98</v>
@@ -1826,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>99</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="21" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>46</v>
@@ -1858,19 +1864,19 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>102</v>
@@ -1878,7 +1884,7 @@
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
@@ -1890,19 +1896,19 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>104</v>
@@ -1922,19 +1928,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>106</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="24" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>49</v>
@@ -1954,19 +1960,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>108</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>102</v>
@@ -1992,13 +1998,13 @@
         <v>21</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>110</v>
@@ -2006,7 +2012,7 @@
     </row>
     <row r="26" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>51</v>
@@ -2018,19 +2024,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>111</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="27" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>52</v>
@@ -2050,19 +2056,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>102</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
@@ -2082,19 +2088,19 @@
         <v>116</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>118</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="29" spans="2:11" ht="195" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>54</v>
@@ -2114,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>102</v>
@@ -2134,7 +2140,7 @@
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
@@ -2146,25 +2152,27 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>124</v>
@@ -2182,12 +2190,14 @@
         <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="K31" s="2" t="s">
         <v>118</v>
       </c>
@@ -2217,14 +2227,16 @@
       <c r="I32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>57</v>
@@ -2254,7 +2266,7 @@
     </row>
     <row r="34" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>58</v>

--- a/Bitrix24/Партнеры.xlsx
+++ b/Bitrix24/Партнеры.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="198">
   <si>
     <t>Zingaya, Inc.</t>
   </si>
@@ -310,9 +310,6 @@
     <t>https://quickbooks.intuit.com/au/learning-centre/user-guide/</t>
   </si>
   <si>
-    <t>When you start the Jira Integration you need to Log in: at this page in right high corner you have button "Manual"</t>
-  </si>
-  <si>
     <t>JotForm</t>
   </si>
   <si>
@@ -593,40 +590,6 @@
   </si>
   <si>
     <t>https://www.bitrix24.com/apps/?app=integrations24.pipedrive#install</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Name; phone number; billing information; email address and home and business postal addresses;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> information about projects and tasks from Asana CRM; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>technical and routing information about user`s computer to facilitate use of the Website and its services; IP address; browser version; the time of the request; the URL of request; files that user uploads, downloads or accesses via the products and services</t>
-    </r>
   </si>
   <si>
     <r>
@@ -788,6 +751,64 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1sygO5wA8sjtbW11jgBFM3XCRBRPG2UlT?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/17T4bbzmA6OqCZrRUT-Y5vo0oMCN0WaWY?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1KCg_xKOIqmX0glBUeBFuO7-r-M5R5-41?usp=sharing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name; phone number; billing information; email address and home and business postal addresses; technical and routing information about user`s computer to facilitate use of the Website and its services; IP address; browser version; the time of the request; the URL of request; files that user uploads, downloads or accesses via the products and services. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Job title, department information, organization, location and timezone</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1R50JKEmxZVHQwVYvVqCO5JCkogzM49l9?usp=sharing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name; phone number; billing information; email address and home and business postal addresses;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> information about projects and tasks from Asana CRM; Role; department; pronouns; information about user (description); work email; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>technical and routing information about user`s computer to facilitate use of the Website and its services; IP address; browser version; the time of the request; the URL of request; files that user uploads, downloads or accesses via the products and services</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1255,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,31 +1467,31 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="154.80000000000001" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1478,25 +1499,25 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>70</v>
@@ -1510,25 +1531,25 @@
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -1542,57 +1563,57 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="156" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="170.4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
@@ -1600,10 +1621,10 @@
     </row>
     <row r="13" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -1624,7 +1645,7 @@
         <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>74</v>
@@ -1636,25 +1657,25 @@
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>75</v>
@@ -1666,25 +1687,25 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -1692,31 +1713,31 @@
     </row>
     <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>74</v>
@@ -1724,34 +1745,34 @@
     </row>
     <row r="17" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -1768,22 +1789,22 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="75" x14ac:dyDescent="0.25">
@@ -1800,22 +1821,22 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -1832,86 +1853,86 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="186" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="90" x14ac:dyDescent="0.25">
@@ -1922,60 +1943,60 @@
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
@@ -1986,196 +2007,196 @@
         <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="195" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="171" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -2190,16 +2211,16 @@
         <v>21</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="150" x14ac:dyDescent="0.25">
@@ -2210,88 +2231,92 @@
         <v>56</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="K34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
